--- a/table_designs/01_fact_book_sales.xlsx
+++ b/table_designs/01_fact_book_sales.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,29 +1049,25 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>is_out_of_stock</t>
+          <t>url_path</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>BOOLEAN</t>
+          <t>VARCHAR(500)</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>Hết hàng?</t>
+          <t>URL sản phẩm khi crawl</t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>https://fahasa.com/dac-nhan-tam.html</t>
         </is>
       </c>
     </row>
@@ -1081,25 +1077,29 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>url_path</t>
+          <t>crawl_timestamp</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>VARCHAR(500)</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr"/>
+          <t>TIMESTAMP</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>URL sản phẩm khi crawl</t>
+          <t>Thời điểm crawl dữ liệu</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>https://fahasa.com/dac-nhan-tam.html</t>
+          <t>2024-10-16 14:30:00</t>
         </is>
       </c>
     </row>
@@ -1109,29 +1109,33 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>crawl_timestamp</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
+          <t>elt_batch_id</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>FK</t>
+        </is>
+      </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr"/>
+          <t>INTEGER</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>Thời điểm crawl dữ liệu</t>
+          <t>Khóa ngoại đến crawl_log (optional)</t>
         </is>
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>2024-10-16 14:30:00</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -1141,33 +1145,29 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>elt_batch_id</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>FK</t>
-        </is>
-      </c>
+          <t>data_src</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>INTEGER</t>
+          <t>VARCHAR(50)</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr"/>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>Fahasa.com</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>Khóa ngoại đến crawl_log (optional)</t>
+          <t>Nguồn dữ liệu</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>Fahasa.com</t>
         </is>
       </c>
     </row>
@@ -1177,59 +1177,27 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>data_src</t>
+          <t>created_at</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>VARCHAR(50)</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr"/>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>Fahasa.com</t>
+          <t>CURRENT_TIMESTAMP</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>Nguồn dữ liệu</t>
+          <t>Thời gian tạo record</t>
         </is>
       </c>
       <c r="H23" s="3" t="inlineStr">
-        <is>
-          <t>Fahasa.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>TIMESTAMP</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>CURRENT_TIMESTAMP</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>Thời gian tạo record</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="inlineStr">
         <is>
           <t>2024-10-16 14:30:00</t>
         </is>
